--- a/logP/results/top_10_mlp_single_rt.xlsx
+++ b/logP/results/top_10_mlp_single_rt.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6743029279330505</v>
+        <v>0.7529471926976382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8211595021267492</v>
+        <v>0.8677252979472468</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6260340324969019</v>
+        <v>0.669282683120184</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7217501034714534</v>
+        <v>0.6643007624820542</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4783514379312778</v>
+        <v>0.9040308859716811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6916295525288648</v>
+        <v>0.9508053880640776</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5355019833442305</v>
+        <v>0.7487492066494995</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7773705676602791</v>
+        <v>0.6834382012956866</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5565354696726443</v>
+        <v>0.8153935523215399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.746013049264317</v>
+        <v>0.9029914464276724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5853686767596106</v>
+        <v>0.7224809165761314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7080148437965703</v>
+        <v>0.6902368927962916</v>
       </c>
     </row>
   </sheetData>
